--- a/ui-testsuite/src/main/resources/TestData/ATR_Invalid_EMEA_CheckMatchRegionFields.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/ATR_Invalid_EMEA_CheckMatchRegionFields.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6451" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7315" uniqueCount="1124">
   <si>
     <t>IB TYPE</t>
   </si>
@@ -3932,87 +3932,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
+    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="BU11" sqref="BU11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="14.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="9.140625" style="39"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="34" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.85546875" customWidth="1"/>
-    <col min="110" max="110" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.42578125" customWidth="1"/>
-    <col min="119" max="119" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="20" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="18" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="30.7109375" style="39"/>
+    <col min="8" max="26" width="30.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:162" s="13" customFormat="1">
@@ -11996,6 +11925,9 @@
         <v>166</v>
       </c>
       <c r="BS30" s="17"/>
+      <c r="BT30" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU30" s="32"/>
       <c r="BV30">
         <v>8</v>
@@ -12031,6 +11963,9 @@
         <v>409</v>
       </c>
       <c r="CG30" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH30" t="s">
         <v>409</v>
       </c>
       <c r="CI30" t="s">
@@ -12058,20 +11993,55 @@
       </c>
       <c r="DA30" s="16"/>
       <c r="DB30" s="16"/>
-      <c r="DC30" s="16"/>
-      <c r="DD30" s="17"/>
-      <c r="DE30" s="17"/>
-      <c r="DF30" s="16"/>
-      <c r="DG30" s="20"/>
-      <c r="DH30" s="20"/>
+      <c r="DC30" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD30" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE30" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF30" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG30" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH30" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI30" s="16"/>
       <c r="DJ30" s="16"/>
-      <c r="DK30" s="16"/>
+      <c r="DK30" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL30" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM30" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN30" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO30" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU30" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH30" s="21"/>
       <c r="EW30" s="17"/>
@@ -12251,6 +12221,9 @@
         <v>166</v>
       </c>
       <c r="BS31" s="17"/>
+      <c r="BT31" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU31" s="32"/>
       <c r="BV31">
         <v>10</v>
@@ -12286,6 +12259,9 @@
         <v>409</v>
       </c>
       <c r="CG31" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH31" t="s">
         <v>409</v>
       </c>
       <c r="CI31" t="s">
@@ -12313,20 +12289,55 @@
       </c>
       <c r="DA31" s="16"/>
       <c r="DB31" s="16"/>
-      <c r="DC31" s="16"/>
-      <c r="DD31" s="17"/>
-      <c r="DE31" s="17"/>
-      <c r="DF31" s="16"/>
-      <c r="DG31" s="20"/>
-      <c r="DH31" s="20"/>
+      <c r="DC31" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD31" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE31" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF31" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG31" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH31" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI31" s="16"/>
       <c r="DJ31" s="16"/>
-      <c r="DK31" s="16"/>
+      <c r="DK31" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL31" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM31" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN31" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO31" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU31" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH31" s="21"/>
       <c r="EW31" s="17"/>
@@ -12508,6 +12519,9 @@
         <v>166</v>
       </c>
       <c r="BS32" s="17"/>
+      <c r="BT32" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU32" s="32"/>
       <c r="BV32">
         <v>9</v>
@@ -12543,6 +12557,9 @@
         <v>409</v>
       </c>
       <c r="CG32" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH32" t="s">
         <v>409</v>
       </c>
       <c r="CI32" t="s">
@@ -12570,20 +12587,55 @@
       </c>
       <c r="DA32" s="16"/>
       <c r="DB32" s="16"/>
-      <c r="DC32" s="16"/>
-      <c r="DD32" s="17"/>
-      <c r="DE32" s="17"/>
-      <c r="DF32" s="16"/>
-      <c r="DG32" s="20"/>
-      <c r="DH32" s="20"/>
+      <c r="DC32" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD32" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE32" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF32" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG32" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH32" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI32" s="16"/>
       <c r="DJ32" s="16"/>
-      <c r="DK32" s="16"/>
+      <c r="DK32" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL32" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM32" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN32" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO32" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS32" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU32" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH32" s="21"/>
       <c r="EW32" s="17"/>
@@ -12763,6 +12815,9 @@
         <v>166</v>
       </c>
       <c r="BS33" s="17"/>
+      <c r="BT33" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU33" s="32"/>
       <c r="BV33">
         <v>8</v>
@@ -12798,6 +12853,9 @@
         <v>409</v>
       </c>
       <c r="CG33" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH33" t="s">
         <v>409</v>
       </c>
       <c r="CI33" t="s">
@@ -12825,20 +12883,55 @@
       </c>
       <c r="DA33" s="16"/>
       <c r="DB33" s="16"/>
-      <c r="DC33" s="16"/>
-      <c r="DD33" s="17"/>
-      <c r="DE33" s="17"/>
-      <c r="DF33" s="16"/>
-      <c r="DG33" s="20"/>
-      <c r="DH33" s="20"/>
+      <c r="DC33" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD33" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE33" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF33" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG33" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH33" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI33" s="16"/>
       <c r="DJ33" s="16"/>
-      <c r="DK33" s="16"/>
+      <c r="DK33" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL33" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM33" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN33" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO33" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS33" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU33" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH33" s="21"/>
       <c r="EW33" s="17"/>
@@ -13018,6 +13111,9 @@
         <v>166</v>
       </c>
       <c r="BS34" s="17"/>
+      <c r="BT34" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU34" s="32"/>
       <c r="BV34">
         <v>8</v>
@@ -13053,6 +13149,9 @@
         <v>409</v>
       </c>
       <c r="CG34" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH34" t="s">
         <v>409</v>
       </c>
       <c r="CI34" t="s">
@@ -13080,20 +13179,55 @@
       </c>
       <c r="DA34" s="16"/>
       <c r="DB34" s="16"/>
-      <c r="DC34" s="16"/>
-      <c r="DD34" s="17"/>
-      <c r="DE34" s="17"/>
-      <c r="DF34" s="16"/>
-      <c r="DG34" s="20"/>
-      <c r="DH34" s="20"/>
+      <c r="DC34" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD34" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE34" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF34" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG34" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH34" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI34" s="16"/>
       <c r="DJ34" s="16"/>
-      <c r="DK34" s="16"/>
+      <c r="DK34" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL34" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM34" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN34" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO34" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS34" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU34" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH34" s="21"/>
       <c r="EW34" s="17"/>
@@ -13275,6 +13409,9 @@
         <v>166</v>
       </c>
       <c r="BS35" s="17"/>
+      <c r="BT35" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU35" s="32"/>
       <c r="BV35">
         <v>9</v>
@@ -13310,6 +13447,9 @@
         <v>409</v>
       </c>
       <c r="CG35" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH35" t="s">
         <v>409</v>
       </c>
       <c r="CI35" t="s">
@@ -13337,20 +13477,55 @@
       </c>
       <c r="DA35" s="16"/>
       <c r="DB35" s="16"/>
-      <c r="DC35" s="16"/>
-      <c r="DD35" s="17"/>
-      <c r="DE35" s="17"/>
-      <c r="DF35" s="16"/>
-      <c r="DG35" s="20"/>
-      <c r="DH35" s="20"/>
+      <c r="DC35" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD35" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE35" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF35" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG35" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH35" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI35" s="16"/>
       <c r="DJ35" s="16"/>
-      <c r="DK35" s="16"/>
+      <c r="DK35" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL35" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM35" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN35" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO35" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS35" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU35" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH35" s="21"/>
       <c r="EW35" s="17"/>
@@ -13532,6 +13707,9 @@
         <v>166</v>
       </c>
       <c r="BS36" s="17"/>
+      <c r="BT36" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU36" s="32"/>
       <c r="BV36">
         <v>9</v>
@@ -13567,6 +13745,9 @@
         <v>409</v>
       </c>
       <c r="CG36" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH36" t="s">
         <v>409</v>
       </c>
       <c r="CI36" t="s">
@@ -13594,20 +13775,55 @@
       </c>
       <c r="DA36" s="16"/>
       <c r="DB36" s="16"/>
-      <c r="DC36" s="16"/>
-      <c r="DD36" s="17"/>
-      <c r="DE36" s="17"/>
-      <c r="DF36" s="16"/>
-      <c r="DG36" s="20"/>
-      <c r="DH36" s="20"/>
+      <c r="DC36" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD36" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE36" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF36" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG36" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH36" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI36" s="16"/>
       <c r="DJ36" s="16"/>
-      <c r="DK36" s="16"/>
+      <c r="DK36" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL36" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM36" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN36" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO36" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU36" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH36" s="21"/>
       <c r="EW36" s="17"/>
@@ -13789,6 +14005,9 @@
         <v>166</v>
       </c>
       <c r="BS37" s="17"/>
+      <c r="BT37" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU37" s="32"/>
       <c r="BV37">
         <v>9</v>
@@ -13824,6 +14043,9 @@
         <v>409</v>
       </c>
       <c r="CG37" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH37" t="s">
         <v>409</v>
       </c>
       <c r="CI37" t="s">
@@ -13851,20 +14073,55 @@
       </c>
       <c r="DA37" s="16"/>
       <c r="DB37" s="16"/>
-      <c r="DC37" s="16"/>
-      <c r="DD37" s="17"/>
-      <c r="DE37" s="17"/>
-      <c r="DF37" s="16"/>
-      <c r="DG37" s="20"/>
-      <c r="DH37" s="20"/>
+      <c r="DC37" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD37" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE37" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF37" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG37" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH37" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI37" s="16"/>
       <c r="DJ37" s="16"/>
-      <c r="DK37" s="16"/>
+      <c r="DK37" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL37" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM37" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN37" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO37" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS37" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU37" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH37" s="21"/>
       <c r="EW37" s="17"/>
@@ -14046,6 +14303,9 @@
         <v>166</v>
       </c>
       <c r="BS38" s="17"/>
+      <c r="BT38" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU38" s="32"/>
       <c r="BV38">
         <v>8</v>
@@ -14081,6 +14341,9 @@
         <v>409</v>
       </c>
       <c r="CG38" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH38" t="s">
         <v>409</v>
       </c>
       <c r="CI38" t="s">
@@ -14108,20 +14371,55 @@
       </c>
       <c r="DA38" s="16"/>
       <c r="DB38" s="16"/>
-      <c r="DC38" s="16"/>
-      <c r="DD38" s="17"/>
-      <c r="DE38" s="17"/>
-      <c r="DF38" s="16"/>
-      <c r="DG38" s="20"/>
-      <c r="DH38" s="20"/>
+      <c r="DC38" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD38" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE38" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF38" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG38" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH38" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI38" s="16"/>
       <c r="DJ38" s="16"/>
-      <c r="DK38" s="16"/>
+      <c r="DK38" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL38" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM38" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN38" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO38" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS38" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU38" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH38" s="21"/>
       <c r="EW38" s="17"/>
@@ -14301,6 +14599,9 @@
         <v>166</v>
       </c>
       <c r="BS39" s="17"/>
+      <c r="BT39" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU39" s="32"/>
       <c r="BV39">
         <v>8</v>
@@ -14336,6 +14637,9 @@
         <v>409</v>
       </c>
       <c r="CG39" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH39" t="s">
         <v>409</v>
       </c>
       <c r="CI39" t="s">
@@ -14363,20 +14667,55 @@
       </c>
       <c r="DA39" s="16"/>
       <c r="DB39" s="16"/>
-      <c r="DC39" s="16"/>
-      <c r="DD39" s="17"/>
-      <c r="DE39" s="17"/>
-      <c r="DF39" s="16"/>
-      <c r="DG39" s="20"/>
-      <c r="DH39" s="20"/>
+      <c r="DC39" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD39" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE39" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF39" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG39" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH39" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI39" s="16"/>
       <c r="DJ39" s="16"/>
-      <c r="DK39" s="16"/>
+      <c r="DK39" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL39" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM39" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN39" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO39" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS39" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU39" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH39" s="21"/>
       <c r="EW39" s="17"/>
@@ -14556,6 +14895,9 @@
         <v>166</v>
       </c>
       <c r="BS40" s="17"/>
+      <c r="BT40" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU40" s="32"/>
       <c r="BV40">
         <v>8</v>
@@ -14591,6 +14933,9 @@
         <v>409</v>
       </c>
       <c r="CG40" t="s">
+        <v>409</v>
+      </c>
+      <c r="CH40" t="s">
         <v>409</v>
       </c>
       <c r="CI40" t="s">
@@ -14618,20 +14963,55 @@
       </c>
       <c r="DA40" s="16"/>
       <c r="DB40" s="16"/>
-      <c r="DC40" s="16"/>
-      <c r="DD40" s="17"/>
-      <c r="DE40" s="17"/>
-      <c r="DF40" s="16"/>
-      <c r="DG40" s="20"/>
-      <c r="DH40" s="20"/>
+      <c r="DC40" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD40" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE40" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF40" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG40" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH40" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI40" s="16"/>
       <c r="DJ40" s="16"/>
-      <c r="DK40" s="16"/>
+      <c r="DK40" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL40" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM40" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN40" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO40" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS40" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU40" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH40" s="21"/>
       <c r="EW40" s="17"/>
@@ -14811,6 +15191,9 @@
         <v>166</v>
       </c>
       <c r="BS41" s="17"/>
+      <c r="BT41" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU41" s="32"/>
       <c r="BV41">
         <v>10</v>
@@ -14846,6 +15229,9 @@
         <v>506</v>
       </c>
       <c r="CG41" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH41" t="s">
         <v>506</v>
       </c>
       <c r="CI41" t="s">
@@ -14873,20 +15259,55 @@
       </c>
       <c r="DA41" s="16"/>
       <c r="DB41" s="16"/>
-      <c r="DC41" s="16"/>
-      <c r="DD41" s="17"/>
-      <c r="DE41" s="17"/>
-      <c r="DF41" s="16"/>
-      <c r="DG41" s="20"/>
-      <c r="DH41" s="20"/>
+      <c r="DC41" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD41" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE41" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF41" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG41" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH41" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI41" s="16"/>
       <c r="DJ41" s="16"/>
-      <c r="DK41" s="16"/>
+      <c r="DK41" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL41" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM41" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN41" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO41" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS41" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU41" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH41" s="21"/>
       <c r="EW41" s="17"/>
@@ -15070,6 +15491,9 @@
         <v>166</v>
       </c>
       <c r="BS42" s="17"/>
+      <c r="BT42" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU42" s="32"/>
       <c r="BV42">
         <v>10</v>
@@ -15105,6 +15529,9 @@
         <v>506</v>
       </c>
       <c r="CG42" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH42" t="s">
         <v>506</v>
       </c>
       <c r="CI42" t="s">
@@ -15132,20 +15559,55 @@
       </c>
       <c r="DA42" s="16"/>
       <c r="DB42" s="16"/>
-      <c r="DC42" s="16"/>
-      <c r="DD42" s="17"/>
-      <c r="DE42" s="17"/>
-      <c r="DF42" s="16"/>
-      <c r="DG42" s="20"/>
-      <c r="DH42" s="20"/>
+      <c r="DC42" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD42" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE42" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF42" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG42" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH42" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI42" s="16"/>
       <c r="DJ42" s="16"/>
-      <c r="DK42" s="16"/>
+      <c r="DK42" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL42" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM42" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN42" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO42" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU42" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH42" s="21"/>
       <c r="EW42" s="17"/>
@@ -15323,6 +15785,9 @@
         <v>166</v>
       </c>
       <c r="BS43" s="17"/>
+      <c r="BT43" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU43" s="32"/>
       <c r="BV43">
         <v>6</v>
@@ -15358,6 +15823,9 @@
         <v>506</v>
       </c>
       <c r="CG43" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH43" t="s">
         <v>506</v>
       </c>
       <c r="CI43" t="s">
@@ -15385,20 +15853,55 @@
       </c>
       <c r="DA43" s="16"/>
       <c r="DB43" s="16"/>
-      <c r="DC43" s="16"/>
-      <c r="DD43" s="17"/>
-      <c r="DE43" s="17"/>
-      <c r="DF43" s="16"/>
-      <c r="DG43" s="20"/>
-      <c r="DH43" s="20"/>
+      <c r="DC43" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD43" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE43" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF43" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG43" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH43" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI43" s="16"/>
       <c r="DJ43" s="16"/>
-      <c r="DK43" s="16"/>
+      <c r="DK43" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL43" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM43" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN43" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO43" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS43" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU43" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH43" s="21"/>
       <c r="EW43" s="17"/>
@@ -15582,6 +16085,9 @@
         <v>166</v>
       </c>
       <c r="BS44" s="17"/>
+      <c r="BT44" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU44" s="32"/>
       <c r="BV44">
         <v>10</v>
@@ -15617,6 +16123,9 @@
         <v>506</v>
       </c>
       <c r="CG44" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH44" t="s">
         <v>506</v>
       </c>
       <c r="CI44" t="s">
@@ -15644,20 +16153,55 @@
       </c>
       <c r="DA44" s="16"/>
       <c r="DB44" s="16"/>
-      <c r="DC44" s="16"/>
-      <c r="DD44" s="17"/>
-      <c r="DE44" s="17"/>
-      <c r="DF44" s="16"/>
-      <c r="DG44" s="20"/>
-      <c r="DH44" s="20"/>
+      <c r="DC44" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD44" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE44" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF44" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG44" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH44" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI44" s="16"/>
       <c r="DJ44" s="16"/>
-      <c r="DK44" s="16"/>
+      <c r="DK44" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL44" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM44" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN44" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO44" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS44" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU44" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH44" s="21"/>
       <c r="EW44" s="17"/>
@@ -15837,6 +16381,9 @@
         <v>166</v>
       </c>
       <c r="BS45" s="17"/>
+      <c r="BT45" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU45" s="32"/>
       <c r="BV45">
         <v>10</v>
@@ -15872,6 +16419,9 @@
         <v>506</v>
       </c>
       <c r="CG45" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH45" t="s">
         <v>506</v>
       </c>
       <c r="CI45" t="s">
@@ -15899,20 +16449,55 @@
       </c>
       <c r="DA45" s="16"/>
       <c r="DB45" s="16"/>
-      <c r="DC45" s="16"/>
-      <c r="DD45" s="17"/>
-      <c r="DE45" s="17"/>
-      <c r="DF45" s="16"/>
-      <c r="DG45" s="20"/>
-      <c r="DH45" s="20"/>
+      <c r="DC45" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD45" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE45" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF45" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG45" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH45" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI45" s="16"/>
       <c r="DJ45" s="16"/>
-      <c r="DK45" s="16"/>
+      <c r="DK45" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL45" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM45" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN45" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO45" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS45" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU45" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH45" s="21"/>
       <c r="EW45" s="17"/>
@@ -16094,6 +16679,9 @@
         <v>166</v>
       </c>
       <c r="BS46" s="17"/>
+      <c r="BT46" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU46" s="32"/>
       <c r="BV46">
         <v>10</v>
@@ -16129,6 +16717,9 @@
         <v>506</v>
       </c>
       <c r="CG46" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH46" t="s">
         <v>506</v>
       </c>
       <c r="CI46" t="s">
@@ -16156,20 +16747,55 @@
       </c>
       <c r="DA46" s="16"/>
       <c r="DB46" s="16"/>
-      <c r="DC46" s="16"/>
-      <c r="DD46" s="17"/>
-      <c r="DE46" s="17"/>
-      <c r="DF46" s="16"/>
-      <c r="DG46" s="20"/>
-      <c r="DH46" s="20"/>
+      <c r="DC46" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD46" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE46" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF46" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG46" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH46" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI46" s="16"/>
       <c r="DJ46" s="16"/>
-      <c r="DK46" s="16"/>
+      <c r="DK46" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL46" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM46" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN46" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO46" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS46" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU46" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH46" s="21"/>
       <c r="EW46" s="17"/>
@@ -16349,6 +16975,9 @@
         <v>166</v>
       </c>
       <c r="BS47" s="17"/>
+      <c r="BT47" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU47" s="32"/>
       <c r="BV47">
         <v>10</v>
@@ -16384,6 +17013,9 @@
         <v>506</v>
       </c>
       <c r="CG47" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH47" t="s">
         <v>506</v>
       </c>
       <c r="CI47" t="s">
@@ -16411,20 +17043,55 @@
       </c>
       <c r="DA47" s="16"/>
       <c r="DB47" s="16"/>
-      <c r="DC47" s="16"/>
-      <c r="DD47" s="17"/>
-      <c r="DE47" s="17"/>
-      <c r="DF47" s="16"/>
-      <c r="DG47" s="20"/>
-      <c r="DH47" s="20"/>
+      <c r="DC47" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD47" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE47" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF47" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG47" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH47" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI47" s="16"/>
       <c r="DJ47" s="16"/>
-      <c r="DK47" s="16"/>
+      <c r="DK47" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL47" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM47" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN47" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO47" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU47" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH47" s="21"/>
       <c r="EW47" s="17"/>
@@ -16604,6 +17271,9 @@
         <v>166</v>
       </c>
       <c r="BS48" s="17"/>
+      <c r="BT48" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU48" s="32"/>
       <c r="BV48">
         <v>9</v>
@@ -16639,6 +17309,9 @@
         <v>506</v>
       </c>
       <c r="CG48" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH48" t="s">
         <v>506</v>
       </c>
       <c r="CI48" t="s">
@@ -16666,20 +17339,55 @@
       </c>
       <c r="DA48" s="16"/>
       <c r="DB48" s="16"/>
-      <c r="DC48" s="16"/>
-      <c r="DD48" s="17"/>
-      <c r="DE48" s="17"/>
-      <c r="DF48" s="16"/>
-      <c r="DG48" s="20"/>
-      <c r="DH48" s="20"/>
+      <c r="DC48" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD48" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE48" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF48" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG48" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH48" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI48" s="16"/>
       <c r="DJ48" s="16"/>
-      <c r="DK48" s="16"/>
+      <c r="DK48" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL48" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM48" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN48" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO48" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU48" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH48" s="21"/>
       <c r="EW48" s="17"/>
@@ -16857,6 +17565,9 @@
         <v>166</v>
       </c>
       <c r="BS49" s="17"/>
+      <c r="BT49" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU49" s="32"/>
       <c r="BV49">
         <v>10</v>
@@ -16892,6 +17603,9 @@
         <v>506</v>
       </c>
       <c r="CG49" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH49" t="s">
         <v>506</v>
       </c>
       <c r="CI49" t="s">
@@ -16919,20 +17633,55 @@
       </c>
       <c r="DA49" s="16"/>
       <c r="DB49" s="16"/>
-      <c r="DC49" s="16"/>
-      <c r="DD49" s="17"/>
-      <c r="DE49" s="17"/>
-      <c r="DF49" s="16"/>
-      <c r="DG49" s="20"/>
-      <c r="DH49" s="20"/>
+      <c r="DC49" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD49" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE49" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF49" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG49" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH49" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI49" s="16"/>
       <c r="DJ49" s="16"/>
-      <c r="DK49" s="16"/>
+      <c r="DK49" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL49" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM49" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN49" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO49" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS49" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU49" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH49" s="21"/>
       <c r="EW49" s="17"/>
@@ -17116,6 +17865,9 @@
         <v>166</v>
       </c>
       <c r="BS50" s="17"/>
+      <c r="BT50" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU50" s="32"/>
       <c r="BV50">
         <v>9</v>
@@ -17151,6 +17903,9 @@
         <v>506</v>
       </c>
       <c r="CG50" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH50" t="s">
         <v>506</v>
       </c>
       <c r="CI50" t="s">
@@ -17178,20 +17933,55 @@
       </c>
       <c r="DA50" s="16"/>
       <c r="DB50" s="16"/>
-      <c r="DC50" s="16"/>
-      <c r="DD50" s="17"/>
-      <c r="DE50" s="17"/>
-      <c r="DF50" s="16"/>
-      <c r="DG50" s="20"/>
-      <c r="DH50" s="20"/>
+      <c r="DC50" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD50" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE50" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF50" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG50" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH50" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI50" s="16"/>
       <c r="DJ50" s="16"/>
-      <c r="DK50" s="16"/>
+      <c r="DK50" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL50" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM50" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN50" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO50" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU50" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH50" s="21"/>
       <c r="EW50" s="17"/>
@@ -17373,6 +18163,9 @@
         <v>166</v>
       </c>
       <c r="BS51" s="17"/>
+      <c r="BT51" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU51" s="32"/>
       <c r="BV51">
         <v>10</v>
@@ -17408,6 +18201,9 @@
         <v>506</v>
       </c>
       <c r="CG51" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH51" t="s">
         <v>506</v>
       </c>
       <c r="CI51" t="s">
@@ -17435,20 +18231,55 @@
       </c>
       <c r="DA51" s="16"/>
       <c r="DB51" s="16"/>
-      <c r="DC51" s="16"/>
-      <c r="DD51" s="17"/>
-      <c r="DE51" s="17"/>
-      <c r="DF51" s="16"/>
-      <c r="DG51" s="20"/>
-      <c r="DH51" s="20"/>
+      <c r="DC51" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD51" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE51" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF51" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG51" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH51" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI51" s="16"/>
       <c r="DJ51" s="16"/>
-      <c r="DK51" s="16"/>
+      <c r="DK51" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL51" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM51" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN51" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO51" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS51" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU51" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH51" s="21"/>
       <c r="EW51" s="17"/>
@@ -17631,6 +18462,9 @@
         <v>166</v>
       </c>
       <c r="BS52" s="34"/>
+      <c r="BT52" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU52" s="32"/>
       <c r="BV52">
         <v>10</v>
@@ -17666,6 +18500,9 @@
         <v>506</v>
       </c>
       <c r="CG52" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH52" t="s">
         <v>506</v>
       </c>
       <c r="CI52" t="s">
@@ -17693,20 +18530,55 @@
       </c>
       <c r="DA52" s="16"/>
       <c r="DB52" s="16"/>
-      <c r="DC52" s="16"/>
-      <c r="DD52" s="17"/>
-      <c r="DE52" s="17"/>
-      <c r="DF52" s="16"/>
-      <c r="DG52" s="20"/>
-      <c r="DH52" s="20"/>
+      <c r="DC52" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD52" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE52" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF52" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG52" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH52" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI52" s="16"/>
       <c r="DJ52" s="16"/>
-      <c r="DK52" s="16"/>
+      <c r="DK52" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL52" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM52" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN52" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO52" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS52" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU52" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH52" s="21"/>
       <c r="EW52" s="17"/>
@@ -17891,6 +18763,9 @@
       <c r="BS53" s="34">
         <v>42309</v>
       </c>
+      <c r="BT53" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU53" s="32"/>
       <c r="BV53">
         <v>11</v>
@@ -17926,6 +18801,9 @@
         <v>506</v>
       </c>
       <c r="CG53" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH53" t="s">
         <v>506</v>
       </c>
       <c r="CI53" t="s">
@@ -17953,20 +18831,55 @@
       </c>
       <c r="DA53" s="16"/>
       <c r="DB53" s="16"/>
-      <c r="DC53" s="16"/>
-      <c r="DD53" s="17"/>
-      <c r="DE53" s="17"/>
-      <c r="DF53" s="16"/>
-      <c r="DG53" s="20"/>
-      <c r="DH53" s="20"/>
+      <c r="DC53" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD53" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE53" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF53" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG53" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH53" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI53" s="16"/>
       <c r="DJ53" s="16"/>
-      <c r="DK53" s="16"/>
+      <c r="DK53" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL53" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM53" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN53" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO53" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS53" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU53" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH53" s="21"/>
       <c r="EW53" s="17"/>
@@ -18141,6 +19054,9 @@
         <v>166</v>
       </c>
       <c r="BS54" s="34"/>
+      <c r="BT54" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU54" s="32"/>
       <c r="BV54">
         <v>7</v>
@@ -18176,6 +19092,9 @@
         <v>506</v>
       </c>
       <c r="CG54" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH54" t="s">
         <v>506</v>
       </c>
       <c r="CI54" t="s">
@@ -18203,20 +19122,55 @@
       </c>
       <c r="DA54" s="16"/>
       <c r="DB54" s="16"/>
-      <c r="DC54" s="16"/>
-      <c r="DD54" s="17"/>
-      <c r="DE54" s="17"/>
-      <c r="DF54" s="16"/>
-      <c r="DG54" s="20"/>
-      <c r="DH54" s="20"/>
+      <c r="DC54" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD54" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE54" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF54" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG54" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH54" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI54" s="16"/>
       <c r="DJ54" s="16"/>
-      <c r="DK54" s="16"/>
+      <c r="DK54" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL54" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM54" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN54" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO54" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS54" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU54" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH54" s="21"/>
       <c r="EW54" s="17"/>
@@ -18391,6 +19345,9 @@
         <v>166</v>
       </c>
       <c r="BS55" s="34"/>
+      <c r="BT55" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU55" s="32"/>
       <c r="BV55">
         <v>9</v>
@@ -18426,6 +19383,9 @@
         <v>506</v>
       </c>
       <c r="CG55" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH55" t="s">
         <v>506</v>
       </c>
       <c r="CI55" t="s">
@@ -18453,20 +19413,55 @@
       </c>
       <c r="DA55" s="16"/>
       <c r="DB55" s="16"/>
-      <c r="DC55" s="16"/>
-      <c r="DD55" s="17"/>
-      <c r="DE55" s="17"/>
-      <c r="DF55" s="16"/>
-      <c r="DG55" s="20"/>
-      <c r="DH55" s="20"/>
+      <c r="DC55" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD55" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE55" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF55" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG55" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH55" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI55" s="16"/>
       <c r="DJ55" s="16"/>
-      <c r="DK55" s="16"/>
+      <c r="DK55" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL55" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM55" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN55" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO55" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS55" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU55" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH55" s="21"/>
       <c r="EW55" s="17"/>
@@ -18641,6 +19636,9 @@
         <v>166</v>
       </c>
       <c r="BS56" s="34"/>
+      <c r="BT56" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU56" s="32"/>
       <c r="BV56">
         <v>10</v>
@@ -18676,6 +19674,9 @@
         <v>506</v>
       </c>
       <c r="CG56" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH56" t="s">
         <v>506</v>
       </c>
       <c r="CI56" t="s">
@@ -18703,20 +19704,55 @@
       </c>
       <c r="DA56" s="16"/>
       <c r="DB56" s="16"/>
-      <c r="DC56" s="16"/>
-      <c r="DD56" s="17"/>
-      <c r="DE56" s="17"/>
-      <c r="DF56" s="16"/>
-      <c r="DG56" s="20"/>
-      <c r="DH56" s="20"/>
+      <c r="DC56" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD56" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE56" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF56" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG56" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH56" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI56" s="16"/>
       <c r="DJ56" s="16"/>
-      <c r="DK56" s="16"/>
+      <c r="DK56" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL56" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM56" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN56" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO56" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU56" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH56" s="21"/>
       <c r="EW56" s="17"/>
@@ -18893,6 +19929,9 @@
         <v>166</v>
       </c>
       <c r="BS57" s="34"/>
+      <c r="BT57" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU57" s="32"/>
       <c r="BV57">
         <v>8</v>
@@ -18928,6 +19967,9 @@
         <v>506</v>
       </c>
       <c r="CG57" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH57" t="s">
         <v>506</v>
       </c>
       <c r="CI57" t="s">
@@ -18955,20 +19997,55 @@
       </c>
       <c r="DA57" s="16"/>
       <c r="DB57" s="16"/>
-      <c r="DC57" s="16"/>
-      <c r="DD57" s="17"/>
-      <c r="DE57" s="17"/>
-      <c r="DF57" s="16"/>
-      <c r="DG57" s="20"/>
-      <c r="DH57" s="20"/>
+      <c r="DC57" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD57" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE57" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF57" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG57" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH57" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI57" s="16"/>
       <c r="DJ57" s="16"/>
-      <c r="DK57" s="16"/>
+      <c r="DK57" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL57" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM57" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN57" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO57" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS57" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU57" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH57" s="21"/>
       <c r="EW57" s="17"/>
@@ -19141,6 +20218,9 @@
         <v>166</v>
       </c>
       <c r="BS58" s="34"/>
+      <c r="BT58" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU58" s="32"/>
       <c r="BV58">
         <v>10</v>
@@ -19176,6 +20256,9 @@
         <v>506</v>
       </c>
       <c r="CG58" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH58" t="s">
         <v>506</v>
       </c>
       <c r="CI58" t="s">
@@ -19203,20 +20286,55 @@
       </c>
       <c r="DA58" s="16"/>
       <c r="DB58" s="16"/>
-      <c r="DC58" s="16"/>
-      <c r="DD58" s="17"/>
-      <c r="DE58" s="17"/>
-      <c r="DF58" s="16"/>
-      <c r="DG58" s="20"/>
-      <c r="DH58" s="20"/>
+      <c r="DC58" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD58" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE58" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF58" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG58" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH58" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI58" s="16"/>
       <c r="DJ58" s="16"/>
-      <c r="DK58" s="16"/>
+      <c r="DK58" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL58" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM58" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN58" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO58" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU58" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH58" s="21"/>
       <c r="EW58" s="17"/>
@@ -19393,6 +20511,9 @@
         <v>166</v>
       </c>
       <c r="BS59" s="17"/>
+      <c r="BT59" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU59" s="32"/>
       <c r="BV59">
         <v>10</v>
@@ -19428,6 +20549,9 @@
         <v>506</v>
       </c>
       <c r="CG59" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH59" t="s">
         <v>506</v>
       </c>
       <c r="CI59" t="s">
@@ -19455,20 +20579,55 @@
       </c>
       <c r="DA59" s="16"/>
       <c r="DB59" s="16"/>
-      <c r="DC59" s="16"/>
-      <c r="DD59" s="17"/>
-      <c r="DE59" s="17"/>
-      <c r="DF59" s="16"/>
-      <c r="DG59" s="20"/>
-      <c r="DH59" s="20"/>
+      <c r="DC59" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD59" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE59" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF59" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG59" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH59" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI59" s="16"/>
       <c r="DJ59" s="16"/>
-      <c r="DK59" s="16"/>
+      <c r="DK59" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL59" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM59" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN59" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO59" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS59" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU59" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH59" s="21"/>
       <c r="EW59" s="17"/>
@@ -19645,6 +20804,9 @@
         <v>166</v>
       </c>
       <c r="BS60" s="17"/>
+      <c r="BT60" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU60" s="32"/>
       <c r="BV60">
         <v>10</v>
@@ -19680,6 +20842,9 @@
         <v>506</v>
       </c>
       <c r="CG60" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH60" t="s">
         <v>506</v>
       </c>
       <c r="CI60" t="s">
@@ -19707,20 +20872,55 @@
       </c>
       <c r="DA60" s="16"/>
       <c r="DB60" s="16"/>
-      <c r="DC60" s="16"/>
-      <c r="DD60" s="17"/>
-      <c r="DE60" s="17"/>
-      <c r="DF60" s="16"/>
-      <c r="DG60" s="20"/>
-      <c r="DH60" s="20"/>
+      <c r="DC60" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD60" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE60" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF60" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG60" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH60" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI60" s="16"/>
       <c r="DJ60" s="16"/>
-      <c r="DK60" s="16"/>
+      <c r="DK60" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL60" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM60" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN60" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO60" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS60" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU60" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH60" s="21"/>
       <c r="EW60" s="17"/>
@@ -19903,6 +21103,9 @@
         <v>166</v>
       </c>
       <c r="BS61" s="17"/>
+      <c r="BT61" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU61" s="32"/>
       <c r="BV61">
         <v>6</v>
@@ -19938,6 +21141,9 @@
         <v>506</v>
       </c>
       <c r="CG61" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH61" t="s">
         <v>506</v>
       </c>
       <c r="CI61" t="s">
@@ -19965,20 +21171,55 @@
       </c>
       <c r="DA61" s="16"/>
       <c r="DB61" s="16"/>
-      <c r="DC61" s="16"/>
-      <c r="DD61" s="17"/>
-      <c r="DE61" s="17"/>
-      <c r="DF61" s="16"/>
-      <c r="DG61" s="20"/>
-      <c r="DH61" s="20"/>
+      <c r="DC61" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD61" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE61" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF61" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG61" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH61" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI61" s="16"/>
       <c r="DJ61" s="16"/>
-      <c r="DK61" s="16"/>
+      <c r="DK61" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL61" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM61" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN61" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO61" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS61" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU61" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH61" s="21"/>
       <c r="EW61" s="17"/>
@@ -20159,6 +21400,9 @@
         <v>166</v>
       </c>
       <c r="BS62" s="17"/>
+      <c r="BT62" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU62" s="32"/>
       <c r="BV62">
         <v>6</v>
@@ -20194,6 +21438,9 @@
         <v>506</v>
       </c>
       <c r="CG62" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH62" t="s">
         <v>506</v>
       </c>
       <c r="CI62" t="s">
@@ -20221,20 +21468,55 @@
       </c>
       <c r="DA62" s="16"/>
       <c r="DB62" s="16"/>
-      <c r="DC62" s="16"/>
-      <c r="DD62" s="17"/>
-      <c r="DE62" s="17"/>
-      <c r="DF62" s="16"/>
-      <c r="DG62" s="20"/>
-      <c r="DH62" s="20"/>
+      <c r="DC62" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD62" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE62" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF62" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG62" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH62" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI62" s="16"/>
       <c r="DJ62" s="16"/>
-      <c r="DK62" s="16"/>
+      <c r="DK62" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL62" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM62" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN62" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO62" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS62" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU62" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH62" s="21"/>
       <c r="EW62" s="17"/>
@@ -20417,6 +21699,9 @@
         <v>166</v>
       </c>
       <c r="BS63" s="17"/>
+      <c r="BT63" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU63" s="32"/>
       <c r="BV63">
         <v>8</v>
@@ -20452,6 +21737,9 @@
         <v>506</v>
       </c>
       <c r="CG63" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH63" t="s">
         <v>506</v>
       </c>
       <c r="CI63" t="s">
@@ -20479,20 +21767,55 @@
       </c>
       <c r="DA63" s="16"/>
       <c r="DB63" s="16"/>
-      <c r="DC63" s="16"/>
-      <c r="DD63" s="17"/>
-      <c r="DE63" s="17"/>
-      <c r="DF63" s="16"/>
-      <c r="DG63" s="20"/>
-      <c r="DH63" s="20"/>
+      <c r="DC63" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD63" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE63" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF63" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG63" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH63" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI63" s="16"/>
       <c r="DJ63" s="16"/>
-      <c r="DK63" s="16"/>
+      <c r="DK63" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL63" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM63" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN63" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO63" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU63" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH63" s="21"/>
       <c r="EW63" s="17"/>
@@ -20675,6 +21998,9 @@
         <v>166</v>
       </c>
       <c r="BS64" s="17"/>
+      <c r="BT64" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU64" s="32"/>
       <c r="BV64">
         <v>8</v>
@@ -20710,6 +22036,9 @@
         <v>506</v>
       </c>
       <c r="CG64" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH64" t="s">
         <v>506</v>
       </c>
       <c r="CI64" t="s">
@@ -20737,20 +22066,55 @@
       </c>
       <c r="DA64" s="16"/>
       <c r="DB64" s="16"/>
-      <c r="DC64" s="16"/>
-      <c r="DD64" s="17"/>
-      <c r="DE64" s="17"/>
-      <c r="DF64" s="16"/>
-      <c r="DG64" s="20"/>
-      <c r="DH64" s="20"/>
+      <c r="DC64" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD64" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE64" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF64" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG64" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH64" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI64" s="16"/>
       <c r="DJ64" s="16"/>
-      <c r="DK64" s="16"/>
+      <c r="DK64" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL64" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM64" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN64" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO64" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS64" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU64" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH64" s="21"/>
       <c r="EW64" s="17"/>
@@ -20933,6 +22297,9 @@
         <v>166</v>
       </c>
       <c r="BS65" s="17"/>
+      <c r="BT65" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU65" s="32"/>
       <c r="BV65">
         <v>6</v>
@@ -20968,6 +22335,9 @@
         <v>506</v>
       </c>
       <c r="CG65" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH65" t="s">
         <v>506</v>
       </c>
       <c r="CI65" t="s">
@@ -20995,20 +22365,55 @@
       </c>
       <c r="DA65" s="16"/>
       <c r="DB65" s="16"/>
-      <c r="DC65" s="16"/>
-      <c r="DD65" s="17"/>
-      <c r="DE65" s="17"/>
-      <c r="DF65" s="16"/>
-      <c r="DG65" s="20"/>
-      <c r="DH65" s="20"/>
+      <c r="DC65" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD65" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE65" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF65" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG65" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH65" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI65" s="16"/>
       <c r="DJ65" s="16"/>
-      <c r="DK65" s="16"/>
+      <c r="DK65" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL65" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM65" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN65" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO65" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU65" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH65" s="21"/>
       <c r="EW65" s="17"/>
@@ -21191,6 +22596,9 @@
         <v>166</v>
       </c>
       <c r="BS66" s="17"/>
+      <c r="BT66" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU66" s="32"/>
       <c r="BV66">
         <v>8</v>
@@ -21226,6 +22634,9 @@
         <v>506</v>
       </c>
       <c r="CG66" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH66" t="s">
         <v>506</v>
       </c>
       <c r="CI66" t="s">
@@ -21253,20 +22664,55 @@
       </c>
       <c r="DA66" s="16"/>
       <c r="DB66" s="16"/>
-      <c r="DC66" s="16"/>
-      <c r="DD66" s="17"/>
-      <c r="DE66" s="17"/>
-      <c r="DF66" s="16"/>
-      <c r="DG66" s="20"/>
-      <c r="DH66" s="20"/>
+      <c r="DC66" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD66" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE66" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF66" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG66" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH66" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI66" s="16"/>
       <c r="DJ66" s="16"/>
-      <c r="DK66" s="16"/>
+      <c r="DK66" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL66" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM66" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN66" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO66" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS66" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU66" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH66" s="21"/>
       <c r="EW66" s="17"/>
@@ -21449,6 +22895,9 @@
         <v>166</v>
       </c>
       <c r="BS67" s="17"/>
+      <c r="BT67" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU67" s="32"/>
       <c r="BV67">
         <v>8</v>
@@ -21484,6 +22933,9 @@
         <v>506</v>
       </c>
       <c r="CG67" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH67" t="s">
         <v>506</v>
       </c>
       <c r="CI67" t="s">
@@ -21511,20 +22963,55 @@
       </c>
       <c r="DA67" s="16"/>
       <c r="DB67" s="16"/>
-      <c r="DC67" s="16"/>
-      <c r="DD67" s="17"/>
-      <c r="DE67" s="17"/>
-      <c r="DF67" s="16"/>
-      <c r="DG67" s="20"/>
-      <c r="DH67" s="20"/>
+      <c r="DC67" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD67" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE67" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF67" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG67" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH67" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI67" s="16"/>
       <c r="DJ67" s="16"/>
-      <c r="DK67" s="16"/>
+      <c r="DK67" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL67" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM67" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN67" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO67" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS67" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU67" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH67" s="21"/>
       <c r="EW67" s="17"/>
@@ -21707,6 +23194,9 @@
         <v>166</v>
       </c>
       <c r="BS68" s="17"/>
+      <c r="BT68" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU68" s="32"/>
       <c r="BV68">
         <v>6</v>
@@ -21742,6 +23232,9 @@
         <v>506</v>
       </c>
       <c r="CG68" t="s">
+        <v>506</v>
+      </c>
+      <c r="CH68" t="s">
         <v>506</v>
       </c>
       <c r="CI68" t="s">
@@ -21769,20 +23262,55 @@
       </c>
       <c r="DA68" s="16"/>
       <c r="DB68" s="16"/>
-      <c r="DC68" s="16"/>
-      <c r="DD68" s="17"/>
-      <c r="DE68" s="17"/>
-      <c r="DF68" s="16"/>
-      <c r="DG68" s="20"/>
-      <c r="DH68" s="20"/>
+      <c r="DC68" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD68" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE68" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF68" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG68" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH68" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI68" s="16"/>
       <c r="DJ68" s="16"/>
-      <c r="DK68" s="16"/>
+      <c r="DK68" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL68" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM68" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN68" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO68" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU68" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH68" s="21"/>
       <c r="EW68" s="17"/>
@@ -21963,6 +23491,9 @@
         <v>166</v>
       </c>
       <c r="BS69" s="17"/>
+      <c r="BT69" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU69" s="32"/>
       <c r="BV69">
         <v>10</v>
@@ -21998,6 +23529,9 @@
         <v>834</v>
       </c>
       <c r="CG69" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH69" t="s">
         <v>834</v>
       </c>
       <c r="CI69" t="s">
@@ -22025,20 +23559,55 @@
       </c>
       <c r="DA69" s="16"/>
       <c r="DB69" s="16"/>
-      <c r="DC69" s="16"/>
-      <c r="DD69" s="17"/>
-      <c r="DE69" s="17"/>
-      <c r="DF69" s="16"/>
-      <c r="DG69" s="20"/>
-      <c r="DH69" s="20"/>
+      <c r="DC69" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD69" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE69" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF69" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG69" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH69" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI69" s="16"/>
       <c r="DJ69" s="16"/>
-      <c r="DK69" s="16"/>
+      <c r="DK69" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL69" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM69" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN69" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO69" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS69" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU69" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH69" s="21"/>
       <c r="EW69" s="17"/>
@@ -22221,6 +23790,9 @@
         <v>166</v>
       </c>
       <c r="BS70" s="17"/>
+      <c r="BT70" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU70" s="32"/>
       <c r="BV70">
         <v>10</v>
@@ -22256,6 +23828,9 @@
         <v>834</v>
       </c>
       <c r="CG70" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH70" t="s">
         <v>834</v>
       </c>
       <c r="CI70" t="s">
@@ -22283,20 +23858,55 @@
       </c>
       <c r="DA70" s="16"/>
       <c r="DB70" s="16"/>
-      <c r="DC70" s="16"/>
-      <c r="DD70" s="17"/>
-      <c r="DE70" s="17"/>
-      <c r="DF70" s="16"/>
-      <c r="DG70" s="20"/>
-      <c r="DH70" s="20"/>
+      <c r="DC70" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD70" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE70" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF70" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG70" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH70" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI70" s="16"/>
       <c r="DJ70" s="16"/>
-      <c r="DK70" s="16"/>
+      <c r="DK70" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL70" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM70" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN70" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO70" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS70" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU70" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH70" s="21"/>
       <c r="EW70" s="17"/>
@@ -22477,6 +24087,9 @@
         <v>166</v>
       </c>
       <c r="BS71" s="17"/>
+      <c r="BT71" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU71" s="32"/>
       <c r="BV71">
         <v>10</v>
@@ -22512,6 +24125,9 @@
         <v>834</v>
       </c>
       <c r="CG71" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH71" t="s">
         <v>834</v>
       </c>
       <c r="CI71" t="s">
@@ -22539,20 +24155,55 @@
       </c>
       <c r="DA71" s="16"/>
       <c r="DB71" s="16"/>
-      <c r="DC71" s="16"/>
-      <c r="DD71" s="17"/>
-      <c r="DE71" s="17"/>
-      <c r="DF71" s="16"/>
-      <c r="DG71" s="20"/>
-      <c r="DH71" s="20"/>
+      <c r="DC71" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD71" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE71" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF71" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG71" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH71" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI71" s="16"/>
       <c r="DJ71" s="16"/>
-      <c r="DK71" s="16"/>
+      <c r="DK71" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL71" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM71" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN71" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO71" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS71" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU71" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH71" s="21"/>
       <c r="EW71" s="17"/>
@@ -22723,6 +24374,9 @@
         <v>166</v>
       </c>
       <c r="BS72" s="17"/>
+      <c r="BT72" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU72" s="32"/>
       <c r="BV72">
         <v>2</v>
@@ -22758,6 +24412,9 @@
         <v>834</v>
       </c>
       <c r="CG72" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH72" t="s">
         <v>834</v>
       </c>
       <c r="CI72" t="s">
@@ -22785,20 +24442,55 @@
       </c>
       <c r="DA72" s="16"/>
       <c r="DB72" s="16"/>
-      <c r="DC72" s="16"/>
-      <c r="DD72" s="17"/>
-      <c r="DE72" s="17"/>
-      <c r="DF72" s="16"/>
-      <c r="DG72" s="20"/>
-      <c r="DH72" s="20"/>
+      <c r="DC72" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD72" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE72" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF72" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG72" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH72" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI72" s="16"/>
       <c r="DJ72" s="16"/>
-      <c r="DK72" s="16"/>
+      <c r="DK72" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL72" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM72" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN72" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO72" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS72" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU72" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH72" s="21"/>
       <c r="EW72" s="17"/>
@@ -22979,6 +24671,9 @@
         <v>166</v>
       </c>
       <c r="BS73" s="17"/>
+      <c r="BT73" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU73" s="32"/>
       <c r="BV73">
         <v>9</v>
@@ -23014,6 +24709,9 @@
         <v>834</v>
       </c>
       <c r="CG73" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH73" t="s">
         <v>834</v>
       </c>
       <c r="CI73" t="s">
@@ -23041,20 +24739,55 @@
       </c>
       <c r="DA73" s="16"/>
       <c r="DB73" s="16"/>
-      <c r="DC73" s="16"/>
-      <c r="DD73" s="17"/>
-      <c r="DE73" s="17"/>
-      <c r="DF73" s="16"/>
-      <c r="DG73" s="20"/>
-      <c r="DH73" s="20"/>
+      <c r="DC73" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD73" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE73" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF73" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG73" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH73" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI73" s="16"/>
       <c r="DJ73" s="16"/>
-      <c r="DK73" s="16"/>
+      <c r="DK73" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL73" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM73" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN73" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO73" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS73" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU73" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH73" s="21"/>
       <c r="EW73" s="17"/>
@@ -23235,6 +24968,9 @@
         <v>166</v>
       </c>
       <c r="BS74" s="17"/>
+      <c r="BT74" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU74" s="32"/>
       <c r="BV74">
         <v>9</v>
@@ -23270,6 +25006,9 @@
         <v>834</v>
       </c>
       <c r="CG74" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH74" t="s">
         <v>834</v>
       </c>
       <c r="CI74" t="s">
@@ -23297,20 +25036,55 @@
       </c>
       <c r="DA74" s="16"/>
       <c r="DB74" s="16"/>
-      <c r="DC74" s="16"/>
-      <c r="DD74" s="17"/>
-      <c r="DE74" s="17"/>
-      <c r="DF74" s="16"/>
-      <c r="DG74" s="20"/>
-      <c r="DH74" s="20"/>
+      <c r="DC74" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD74" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE74" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF74" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG74" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH74" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI74" s="16"/>
       <c r="DJ74" s="16"/>
-      <c r="DK74" s="16"/>
+      <c r="DK74" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL74" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM74" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN74" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO74" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU74" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH74" s="21"/>
       <c r="EW74" s="17"/>
@@ -23491,6 +25265,9 @@
         <v>166</v>
       </c>
       <c r="BS75" s="17"/>
+      <c r="BT75" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU75" s="32"/>
       <c r="BV75">
         <v>9</v>
@@ -23526,6 +25303,9 @@
         <v>834</v>
       </c>
       <c r="CG75" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH75" t="s">
         <v>834</v>
       </c>
       <c r="CI75" t="s">
@@ -23553,20 +25333,55 @@
       </c>
       <c r="DA75" s="16"/>
       <c r="DB75" s="16"/>
-      <c r="DC75" s="16"/>
-      <c r="DD75" s="17"/>
-      <c r="DE75" s="17"/>
-      <c r="DF75" s="16"/>
-      <c r="DG75" s="20"/>
-      <c r="DH75" s="20"/>
+      <c r="DC75" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD75" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE75" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF75" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG75" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH75" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI75" s="16"/>
       <c r="DJ75" s="16"/>
-      <c r="DK75" s="16"/>
+      <c r="DK75" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL75" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM75" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN75" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO75" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS75" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU75" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH75" s="21"/>
       <c r="EW75" s="17"/>
@@ -23749,6 +25564,9 @@
         <v>166</v>
       </c>
       <c r="BS76" s="34"/>
+      <c r="BT76" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU76" s="32"/>
       <c r="BV76">
         <v>7</v>
@@ -23784,6 +25602,9 @@
         <v>834</v>
       </c>
       <c r="CG76" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH76" t="s">
         <v>834</v>
       </c>
       <c r="CI76" t="s">
@@ -23811,20 +25632,55 @@
       </c>
       <c r="DA76" s="16"/>
       <c r="DB76" s="16"/>
-      <c r="DC76" s="16"/>
-      <c r="DD76" s="17"/>
-      <c r="DE76" s="17"/>
-      <c r="DF76" s="16"/>
-      <c r="DG76" s="20"/>
-      <c r="DH76" s="20"/>
+      <c r="DC76" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD76" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE76" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF76" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG76" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH76" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI76" s="16"/>
       <c r="DJ76" s="16"/>
-      <c r="DK76" s="16"/>
+      <c r="DK76" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL76" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM76" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN76" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO76" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS76" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU76" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH76" s="21"/>
       <c r="EW76" s="17"/>
@@ -24007,6 +25863,9 @@
         <v>166</v>
       </c>
       <c r="BS77" s="34"/>
+      <c r="BT77" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU77" s="32"/>
       <c r="BV77">
         <v>7</v>
@@ -24042,6 +25901,9 @@
         <v>834</v>
       </c>
       <c r="CG77" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH77" t="s">
         <v>834</v>
       </c>
       <c r="CI77" t="s">
@@ -24069,20 +25931,55 @@
       </c>
       <c r="DA77" s="16"/>
       <c r="DB77" s="16"/>
-      <c r="DC77" s="16"/>
-      <c r="DD77" s="17"/>
-      <c r="DE77" s="17"/>
-      <c r="DF77" s="16"/>
-      <c r="DG77" s="20"/>
-      <c r="DH77" s="20"/>
+      <c r="DC77" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD77" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE77" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF77" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG77" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH77" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI77" s="16"/>
       <c r="DJ77" s="16"/>
-      <c r="DK77" s="16"/>
+      <c r="DK77" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL77" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM77" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN77" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO77" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS77" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU77" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH77" s="21"/>
       <c r="EW77" s="17"/>
@@ -24261,6 +26158,9 @@
       <c r="BS78" s="34">
         <v>42663</v>
       </c>
+      <c r="BT78" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU78" s="32"/>
       <c r="BV78">
         <v>10</v>
@@ -24296,6 +26196,9 @@
         <v>834</v>
       </c>
       <c r="CG78" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH78" t="s">
         <v>834</v>
       </c>
       <c r="CI78" t="s">
@@ -24323,20 +26226,55 @@
       </c>
       <c r="DA78" s="16"/>
       <c r="DB78" s="16"/>
-      <c r="DC78" s="16"/>
-      <c r="DD78" s="17"/>
-      <c r="DE78" s="17"/>
-      <c r="DF78" s="16"/>
-      <c r="DG78" s="20"/>
-      <c r="DH78" s="20"/>
+      <c r="DC78" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD78" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE78" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF78" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG78" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH78" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI78" s="16"/>
       <c r="DJ78" s="16"/>
-      <c r="DK78" s="16"/>
+      <c r="DK78" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL78" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM78" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN78" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO78" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS78" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU78" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH78" s="21"/>
       <c r="EW78" s="17"/>
@@ -24513,6 +26451,9 @@
         <v>166</v>
       </c>
       <c r="BS79" s="34"/>
+      <c r="BT79" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU79" s="32"/>
       <c r="BV79">
         <v>10</v>
@@ -24548,6 +26489,9 @@
         <v>834</v>
       </c>
       <c r="CG79" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH79" t="s">
         <v>834</v>
       </c>
       <c r="CI79" t="s">
@@ -24575,20 +26519,55 @@
       </c>
       <c r="DA79" s="16"/>
       <c r="DB79" s="16"/>
-      <c r="DC79" s="16"/>
-      <c r="DD79" s="17"/>
-      <c r="DE79" s="17"/>
-      <c r="DF79" s="16"/>
-      <c r="DG79" s="20"/>
-      <c r="DH79" s="20"/>
+      <c r="DC79" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD79" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE79" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF79" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG79" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH79" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI79" s="16"/>
       <c r="DJ79" s="16"/>
-      <c r="DK79" s="16"/>
+      <c r="DK79" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL79" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM79" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN79" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO79" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS79" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU79" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH79" s="21"/>
       <c r="EW79" s="17"/>
@@ -24765,6 +26744,9 @@
         <v>166</v>
       </c>
       <c r="BS80" s="34"/>
+      <c r="BT80" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU80" s="32"/>
       <c r="BV80">
         <v>9</v>
@@ -24800,6 +26782,9 @@
         <v>834</v>
       </c>
       <c r="CG80" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH80" t="s">
         <v>834</v>
       </c>
       <c r="CI80" t="s">
@@ -24827,20 +26812,55 @@
       </c>
       <c r="DA80" s="16"/>
       <c r="DB80" s="16"/>
-      <c r="DC80" s="16"/>
-      <c r="DD80" s="17"/>
-      <c r="DE80" s="17"/>
-      <c r="DF80" s="16"/>
-      <c r="DG80" s="20"/>
-      <c r="DH80" s="20"/>
+      <c r="DC80" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD80" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE80" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF80" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG80" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH80" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI80" s="16"/>
       <c r="DJ80" s="16"/>
-      <c r="DK80" s="16"/>
+      <c r="DK80" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL80" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM80" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN80" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO80" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS80" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU80" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH80" s="21"/>
       <c r="EW80" s="17"/>
@@ -25017,6 +27037,9 @@
         <v>166</v>
       </c>
       <c r="BS81" s="34"/>
+      <c r="BT81" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU81" s="32"/>
       <c r="BV81">
         <v>10</v>
@@ -25052,6 +27075,9 @@
         <v>834</v>
       </c>
       <c r="CG81" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH81" t="s">
         <v>834</v>
       </c>
       <c r="CI81" t="s">
@@ -25079,20 +27105,55 @@
       </c>
       <c r="DA81" s="16"/>
       <c r="DB81" s="16"/>
-      <c r="DC81" s="16"/>
-      <c r="DD81" s="17"/>
-      <c r="DE81" s="17"/>
-      <c r="DF81" s="16"/>
-      <c r="DG81" s="20"/>
-      <c r="DH81" s="20"/>
+      <c r="DC81" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD81" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE81" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF81" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG81" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH81" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI81" s="16"/>
       <c r="DJ81" s="16"/>
-      <c r="DK81" s="16"/>
+      <c r="DK81" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL81" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM81" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN81" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO81" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS81" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU81" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH81" s="21"/>
       <c r="EW81" s="17"/>
@@ -25275,6 +27336,9 @@
         <v>166</v>
       </c>
       <c r="BS82" s="34"/>
+      <c r="BT82" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU82" s="32"/>
       <c r="BV82">
         <v>7</v>
@@ -25310,6 +27374,9 @@
         <v>834</v>
       </c>
       <c r="CG82" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH82" t="s">
         <v>834</v>
       </c>
       <c r="CI82" t="s">
@@ -25337,20 +27404,55 @@
       </c>
       <c r="DA82" s="16"/>
       <c r="DB82" s="16"/>
-      <c r="DC82" s="16"/>
-      <c r="DD82" s="17"/>
-      <c r="DE82" s="17"/>
-      <c r="DF82" s="16"/>
-      <c r="DG82" s="20"/>
-      <c r="DH82" s="20"/>
+      <c r="DC82" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD82" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE82" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF82" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG82" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH82" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI82" s="16"/>
       <c r="DJ82" s="16"/>
-      <c r="DK82" s="16"/>
+      <c r="DK82" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL82" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM82" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN82" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO82" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS82" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU82" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH82" s="21"/>
       <c r="EW82" s="17"/>
@@ -25533,6 +27635,9 @@
         <v>166</v>
       </c>
       <c r="BS83" s="34"/>
+      <c r="BT83" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU83" s="32"/>
       <c r="BV83">
         <v>7</v>
@@ -25568,6 +27673,9 @@
         <v>834</v>
       </c>
       <c r="CG83" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH83" t="s">
         <v>834</v>
       </c>
       <c r="CI83" t="s">
@@ -25595,20 +27703,55 @@
       </c>
       <c r="DA83" s="16"/>
       <c r="DB83" s="16"/>
-      <c r="DC83" s="16"/>
-      <c r="DD83" s="17"/>
-      <c r="DE83" s="17"/>
-      <c r="DF83" s="16"/>
-      <c r="DG83" s="20"/>
-      <c r="DH83" s="20"/>
+      <c r="DC83" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD83" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE83" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF83" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG83" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH83" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI83" s="16"/>
       <c r="DJ83" s="16"/>
-      <c r="DK83" s="16"/>
+      <c r="DK83" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL83" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM83" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN83" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO83" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS83" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU83" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH83" s="21"/>
       <c r="EW83" s="17"/>
@@ -25785,6 +27928,9 @@
         <v>166</v>
       </c>
       <c r="BS84" s="34"/>
+      <c r="BT84" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU84" s="32"/>
       <c r="BV84">
         <v>10</v>
@@ -25820,6 +27966,9 @@
         <v>834</v>
       </c>
       <c r="CG84" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH84" t="s">
         <v>834</v>
       </c>
       <c r="CI84" t="s">
@@ -25847,20 +27996,55 @@
       </c>
       <c r="DA84" s="16"/>
       <c r="DB84" s="16"/>
-      <c r="DC84" s="16"/>
-      <c r="DD84" s="17"/>
-      <c r="DE84" s="17"/>
-      <c r="DF84" s="16"/>
-      <c r="DG84" s="20"/>
-      <c r="DH84" s="20"/>
+      <c r="DC84" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD84" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE84" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF84" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG84" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH84" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI84" s="16"/>
       <c r="DJ84" s="16"/>
-      <c r="DK84" s="16"/>
+      <c r="DK84" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL84" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM84" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN84" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO84" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS84" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU84" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH84" s="21"/>
       <c r="EW84" s="17"/>
@@ -26037,6 +28221,9 @@
         <v>166</v>
       </c>
       <c r="BS85" s="34"/>
+      <c r="BT85" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU85" s="32"/>
       <c r="BV85">
         <v>10</v>
@@ -26072,6 +28259,9 @@
         <v>834</v>
       </c>
       <c r="CG85" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH85" t="s">
         <v>834</v>
       </c>
       <c r="CI85" t="s">
@@ -26099,20 +28289,55 @@
       </c>
       <c r="DA85" s="16"/>
       <c r="DB85" s="16"/>
-      <c r="DC85" s="16"/>
-      <c r="DD85" s="17"/>
-      <c r="DE85" s="17"/>
-      <c r="DF85" s="16"/>
-      <c r="DG85" s="20"/>
-      <c r="DH85" s="20"/>
+      <c r="DC85" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD85" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE85" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF85" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG85" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH85" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI85" s="16"/>
       <c r="DJ85" s="16"/>
-      <c r="DK85" s="16"/>
+      <c r="DK85" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL85" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM85" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN85" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO85" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS85" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU85" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH85" s="21"/>
       <c r="EW85" s="17"/>
@@ -26289,6 +28514,9 @@
         <v>166</v>
       </c>
       <c r="BS86" s="34"/>
+      <c r="BT86" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU86" s="32"/>
       <c r="BV86">
         <v>10</v>
@@ -26324,6 +28552,9 @@
         <v>834</v>
       </c>
       <c r="CG86" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH86" t="s">
         <v>834</v>
       </c>
       <c r="CI86" t="s">
@@ -26351,20 +28582,55 @@
       </c>
       <c r="DA86" s="16"/>
       <c r="DB86" s="16"/>
-      <c r="DC86" s="16"/>
-      <c r="DD86" s="17"/>
-      <c r="DE86" s="17"/>
-      <c r="DF86" s="16"/>
-      <c r="DG86" s="20"/>
-      <c r="DH86" s="20"/>
+      <c r="DC86" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD86" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE86" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF86" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG86" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH86" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI86" s="16"/>
       <c r="DJ86" s="16"/>
-      <c r="DK86" s="16"/>
+      <c r="DK86" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL86" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM86" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN86" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO86" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS86" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU86" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH86" s="21"/>
       <c r="EW86" s="17"/>
@@ -26529,6 +28795,9 @@
         <v>166</v>
       </c>
       <c r="BS87" s="17"/>
+      <c r="BT87" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU87" s="32"/>
       <c r="BV87">
         <v>10</v>
@@ -26564,6 +28833,9 @@
         <v>834</v>
       </c>
       <c r="CG87" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH87" t="s">
         <v>834</v>
       </c>
       <c r="CI87" t="s">
@@ -26591,20 +28863,55 @@
       </c>
       <c r="DA87" s="16"/>
       <c r="DB87" s="16"/>
-      <c r="DC87" s="16"/>
-      <c r="DD87" s="17"/>
-      <c r="DE87" s="17"/>
-      <c r="DF87" s="16"/>
-      <c r="DG87" s="20"/>
-      <c r="DH87" s="20"/>
+      <c r="DC87" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD87" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE87" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF87" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG87" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH87" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI87" s="16"/>
       <c r="DJ87" s="16"/>
-      <c r="DK87" s="16"/>
+      <c r="DK87" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL87" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM87" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN87" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO87" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS87" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU87" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH87" s="21"/>
       <c r="EW87" s="17"/>
@@ -26771,6 +29078,9 @@
         <v>166</v>
       </c>
       <c r="BS88" s="17"/>
+      <c r="BT88" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU88" s="32"/>
       <c r="BV88">
         <v>3</v>
@@ -26804,6 +29114,9 @@
         <v>834</v>
       </c>
       <c r="CG88" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH88" t="s">
         <v>834</v>
       </c>
       <c r="CI88"/>
@@ -26829,20 +29142,55 @@
       </c>
       <c r="DA88" s="16"/>
       <c r="DB88" s="16"/>
-      <c r="DC88" s="16"/>
-      <c r="DD88" s="17"/>
-      <c r="DE88" s="17"/>
-      <c r="DF88" s="16"/>
-      <c r="DG88" s="20"/>
-      <c r="DH88" s="20"/>
+      <c r="DC88" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD88" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE88" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF88" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG88" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH88" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI88" s="16"/>
       <c r="DJ88" s="16"/>
-      <c r="DK88" s="16"/>
+      <c r="DK88" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL88" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM88" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN88" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO88" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS88" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU88" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH88" s="21"/>
       <c r="EW88" s="17"/>
@@ -27019,6 +29367,9 @@
         <v>166</v>
       </c>
       <c r="BS89" s="34"/>
+      <c r="BT89" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU89" s="32"/>
       <c r="BV89">
         <v>10</v>
@@ -27054,6 +29405,9 @@
         <v>1022</v>
       </c>
       <c r="CG89" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CH89" t="s">
         <v>1022</v>
       </c>
       <c r="CI89" t="s">
@@ -27081,20 +29435,55 @@
       </c>
       <c r="DA89" s="16"/>
       <c r="DB89" s="16"/>
-      <c r="DC89" s="16"/>
-      <c r="DD89" s="17"/>
-      <c r="DE89" s="17"/>
-      <c r="DF89" s="16"/>
-      <c r="DG89" s="20"/>
-      <c r="DH89" s="20"/>
+      <c r="DC89" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD89" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE89" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF89" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG89" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH89" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI89" s="16"/>
       <c r="DJ89" s="16"/>
-      <c r="DK89" s="16"/>
+      <c r="DK89" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL89" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM89" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN89" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO89" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU89" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH89" s="21"/>
       <c r="EW89" s="17"/>
@@ -27271,6 +29660,9 @@
         <v>166</v>
       </c>
       <c r="BS90" s="34"/>
+      <c r="BT90" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU90" s="32"/>
       <c r="BV90">
         <v>12</v>
@@ -27306,6 +29698,9 @@
         <v>1022</v>
       </c>
       <c r="CG90" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CH90" t="s">
         <v>1022</v>
       </c>
       <c r="CI90" t="s">
@@ -27333,20 +29728,55 @@
       </c>
       <c r="DA90" s="16"/>
       <c r="DB90" s="16"/>
-      <c r="DC90" s="16"/>
-      <c r="DD90" s="17"/>
-      <c r="DE90" s="17"/>
-      <c r="DF90" s="16"/>
-      <c r="DG90" s="20"/>
-      <c r="DH90" s="20"/>
+      <c r="DC90" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD90" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE90" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF90" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG90" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH90" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI90" s="16"/>
       <c r="DJ90" s="16"/>
-      <c r="DK90" s="16"/>
+      <c r="DK90" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL90" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM90" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN90" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO90" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS90" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU90" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH90" s="21"/>
       <c r="EW90" s="17"/>
@@ -27523,6 +29953,9 @@
         <v>166</v>
       </c>
       <c r="BS91" s="34"/>
+      <c r="BT91" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU91" s="32"/>
       <c r="BV91">
         <v>8</v>
@@ -27558,6 +29991,9 @@
         <v>1022</v>
       </c>
       <c r="CG91" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CH91" t="s">
         <v>1022</v>
       </c>
       <c r="CI91" t="s">
@@ -27585,20 +30021,55 @@
       </c>
       <c r="DA91" s="16"/>
       <c r="DB91" s="16"/>
-      <c r="DC91" s="16"/>
-      <c r="DD91" s="17"/>
-      <c r="DE91" s="17"/>
-      <c r="DF91" s="16"/>
-      <c r="DG91" s="20"/>
-      <c r="DH91" s="20"/>
+      <c r="DC91" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD91" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE91" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF91" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG91" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH91" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI91" s="16"/>
       <c r="DJ91" s="16"/>
-      <c r="DK91" s="16"/>
+      <c r="DK91" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL91" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM91" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN91" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO91" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS91" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU91" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH91" s="21"/>
       <c r="EW91" s="17"/>
@@ -27764,6 +30235,9 @@
         <v>166</v>
       </c>
       <c r="BS92" s="34"/>
+      <c r="BT92" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU92" s="32"/>
       <c r="BV92">
         <v>10</v>
@@ -27799,6 +30273,9 @@
         <v>834</v>
       </c>
       <c r="CG92" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH92" t="s">
         <v>834</v>
       </c>
       <c r="CI92" t="s">
@@ -27826,20 +30303,55 @@
       </c>
       <c r="DA92" s="16"/>
       <c r="DB92" s="16"/>
-      <c r="DC92" s="16"/>
-      <c r="DD92" s="17"/>
-      <c r="DE92" s="17"/>
-      <c r="DF92" s="16"/>
-      <c r="DG92" s="20"/>
-      <c r="DH92" s="20"/>
+      <c r="DC92" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD92" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE92" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF92" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG92" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH92" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI92" s="16"/>
       <c r="DJ92" s="16"/>
-      <c r="DK92" s="16"/>
+      <c r="DK92" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL92" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM92" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN92" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO92" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP92" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ92" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR92" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS92" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU92" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH92" s="21"/>
       <c r="EW92" s="17"/>
@@ -28014,6 +30526,9 @@
         <v>166</v>
       </c>
       <c r="BS93" s="34"/>
+      <c r="BT93" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU93" s="32"/>
       <c r="BV93">
         <v>7</v>
@@ -28049,6 +30564,9 @@
         <v>834</v>
       </c>
       <c r="CG93" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH93" t="s">
         <v>834</v>
       </c>
       <c r="CI93" t="s">
@@ -28076,20 +30594,55 @@
       </c>
       <c r="DA93" s="16"/>
       <c r="DB93" s="16"/>
-      <c r="DC93" s="16"/>
-      <c r="DD93" s="17"/>
-      <c r="DE93" s="17"/>
-      <c r="DF93" s="16"/>
-      <c r="DG93" s="20"/>
-      <c r="DH93" s="20"/>
+      <c r="DC93" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD93" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE93" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF93" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG93" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH93" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI93" s="16"/>
       <c r="DJ93" s="16"/>
-      <c r="DK93" s="16"/>
+      <c r="DK93" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL93" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM93" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN93" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO93" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP93" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ93" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR93" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS93" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU93" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH93" s="21"/>
       <c r="EW93" s="17"/>
@@ -28267,6 +30820,9 @@
         <v>166</v>
       </c>
       <c r="BS94" s="34"/>
+      <c r="BT94" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU94" s="32"/>
       <c r="BV94">
         <v>7</v>
@@ -28302,6 +30858,9 @@
         <v>834</v>
       </c>
       <c r="CG94" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH94" t="s">
         <v>834</v>
       </c>
       <c r="CI94" t="s">
@@ -28329,20 +30888,55 @@
       </c>
       <c r="DA94" s="16"/>
       <c r="DB94" s="16"/>
-      <c r="DC94" s="16"/>
-      <c r="DD94" s="17"/>
-      <c r="DE94" s="17"/>
-      <c r="DF94" s="16"/>
-      <c r="DG94" s="20"/>
-      <c r="DH94" s="20"/>
+      <c r="DC94" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD94" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE94" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF94" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG94" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH94" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI94" s="16"/>
       <c r="DJ94" s="16"/>
-      <c r="DK94" s="16"/>
+      <c r="DK94" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL94" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM94" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN94" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO94" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP94" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ94" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR94" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS94" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU94" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH94" s="21"/>
       <c r="EW94" s="17"/>
@@ -28511,6 +31105,9 @@
         <v>166</v>
       </c>
       <c r="BS95" s="34"/>
+      <c r="BT95" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU95" s="32"/>
       <c r="BV95">
         <v>10</v>
@@ -28546,6 +31143,9 @@
         <v>834</v>
       </c>
       <c r="CG95" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH95" t="s">
         <v>834</v>
       </c>
       <c r="CI95" t="s">
@@ -28573,20 +31173,55 @@
       </c>
       <c r="DA95" s="16"/>
       <c r="DB95" s="16"/>
-      <c r="DC95" s="16"/>
-      <c r="DD95" s="17"/>
-      <c r="DE95" s="17"/>
-      <c r="DF95" s="16"/>
-      <c r="DG95" s="20"/>
-      <c r="DH95" s="20"/>
+      <c r="DC95" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD95" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE95" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF95" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG95" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH95" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI95" s="16"/>
       <c r="DJ95" s="16"/>
-      <c r="DK95" s="16"/>
+      <c r="DK95" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL95" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM95" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN95" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO95" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP95" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ95" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR95" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS95" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU95" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH95" s="21"/>
       <c r="EW95" s="17"/>
@@ -28757,6 +31392,9 @@
         <v>166</v>
       </c>
       <c r="BS96" s="34"/>
+      <c r="BT96" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU96" s="32"/>
       <c r="BV96">
         <v>10</v>
@@ -28792,6 +31430,9 @@
         <v>834</v>
       </c>
       <c r="CG96" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH96" t="s">
         <v>834</v>
       </c>
       <c r="CI96" t="s">
@@ -28819,20 +31460,55 @@
       </c>
       <c r="DA96" s="16"/>
       <c r="DB96" s="16"/>
-      <c r="DC96" s="16"/>
-      <c r="DD96" s="17"/>
-      <c r="DE96" s="17"/>
-      <c r="DF96" s="16"/>
-      <c r="DG96" s="20"/>
-      <c r="DH96" s="20"/>
+      <c r="DC96" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD96" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE96" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF96" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG96" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH96" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI96" s="16"/>
       <c r="DJ96" s="16"/>
-      <c r="DK96" s="16"/>
+      <c r="DK96" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL96" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM96" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN96" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO96" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP96" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ96" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR96" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS96" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU96" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH96" s="21"/>
       <c r="EW96" s="17"/>
@@ -29006,6 +31682,9 @@
         <v>166</v>
       </c>
       <c r="BS97" s="34"/>
+      <c r="BT97" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU97" s="32"/>
       <c r="BV97">
         <v>10</v>
@@ -29041,6 +31720,9 @@
         <v>834</v>
       </c>
       <c r="CG97" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH97" t="s">
         <v>834</v>
       </c>
       <c r="CI97" t="s">
@@ -29068,20 +31750,55 @@
       </c>
       <c r="DA97" s="16"/>
       <c r="DB97" s="16"/>
-      <c r="DC97" s="16"/>
-      <c r="DD97" s="17"/>
-      <c r="DE97" s="17"/>
-      <c r="DF97" s="16"/>
-      <c r="DG97" s="20"/>
-      <c r="DH97" s="20"/>
+      <c r="DC97" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD97" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE97" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF97" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG97" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH97" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI97" s="16"/>
       <c r="DJ97" s="16"/>
-      <c r="DK97" s="16"/>
+      <c r="DK97" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL97" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM97" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN97" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO97" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP97" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ97" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR97" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS97" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU97" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH97" s="21"/>
       <c r="EW97" s="17"/>
@@ -29241,6 +31958,9 @@
         <v>166</v>
       </c>
       <c r="BS98" s="17"/>
+      <c r="BT98" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU98" s="32"/>
       <c r="BV98">
         <v>10</v>
@@ -29276,6 +31996,9 @@
         <v>834</v>
       </c>
       <c r="CG98" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH98" t="s">
         <v>834</v>
       </c>
       <c r="CI98" t="s">
@@ -29303,20 +32026,55 @@
       </c>
       <c r="DA98" s="16"/>
       <c r="DB98" s="16"/>
-      <c r="DC98" s="16"/>
-      <c r="DD98" s="17"/>
-      <c r="DE98" s="17"/>
-      <c r="DF98" s="16"/>
-      <c r="DG98" s="20"/>
-      <c r="DH98" s="20"/>
+      <c r="DC98" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD98" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE98" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF98" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG98" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH98" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI98" s="16"/>
       <c r="DJ98" s="16"/>
-      <c r="DK98" s="16"/>
+      <c r="DK98" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL98" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM98" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN98" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO98" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP98" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ98" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR98" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS98" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU98" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH98" s="21"/>
       <c r="EW98" s="17"/>
@@ -29477,6 +32235,9 @@
         <v>166</v>
       </c>
       <c r="BS99" s="17"/>
+      <c r="BT99" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU99" s="32"/>
       <c r="BV99">
         <v>3</v>
@@ -29510,6 +32271,9 @@
         <v>834</v>
       </c>
       <c r="CG99" t="s">
+        <v>834</v>
+      </c>
+      <c r="CH99" t="s">
         <v>834</v>
       </c>
       <c r="CI99"/>
@@ -29535,20 +32299,55 @@
       </c>
       <c r="DA99" s="16"/>
       <c r="DB99" s="16"/>
-      <c r="DC99" s="16"/>
-      <c r="DD99" s="17"/>
-      <c r="DE99" s="17"/>
-      <c r="DF99" s="16"/>
-      <c r="DG99" s="20"/>
-      <c r="DH99" s="20"/>
+      <c r="DC99" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD99" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE99" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF99" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG99" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH99" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI99" s="16"/>
       <c r="DJ99" s="16"/>
-      <c r="DK99" s="16"/>
+      <c r="DK99" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL99" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM99" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN99" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO99" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP99" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ99" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR99" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS99" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU99" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH99" s="21"/>
       <c r="EW99" s="17"/>
@@ -29716,6 +32515,9 @@
         <v>166</v>
       </c>
       <c r="BS100" s="34"/>
+      <c r="BT100" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU100" s="32"/>
       <c r="BV100">
         <v>10</v>
@@ -29751,6 +32553,9 @@
         <v>1022</v>
       </c>
       <c r="CG100" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CH100" t="s">
         <v>1022</v>
       </c>
       <c r="CI100" t="s">
@@ -29778,20 +32583,55 @@
       </c>
       <c r="DA100" s="16"/>
       <c r="DB100" s="16"/>
-      <c r="DC100" s="16"/>
-      <c r="DD100" s="17"/>
-      <c r="DE100" s="17"/>
-      <c r="DF100" s="16"/>
-      <c r="DG100" s="20"/>
-      <c r="DH100" s="20"/>
+      <c r="DC100" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD100" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE100" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF100" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG100" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH100" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI100" s="16"/>
       <c r="DJ100" s="16"/>
-      <c r="DK100" s="16"/>
+      <c r="DK100" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL100" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM100" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN100" s="17" t="s">
         <v>410</v>
+      </c>
+      <c r="DO100" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP100" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ100" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR100" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS100" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU100" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH100" s="21"/>
       <c r="EW100" s="17"/>
@@ -29960,6 +32800,9 @@
         <v>166</v>
       </c>
       <c r="BS101" s="34"/>
+      <c r="BT101" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="BU101" s="32"/>
       <c r="BV101">
         <v>12</v>
@@ -29995,6 +32838,9 @@
         <v>1022</v>
       </c>
       <c r="CG101" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CH101" t="s">
         <v>1022</v>
       </c>
       <c r="CI101" t="s">
@@ -30022,20 +32868,55 @@
       </c>
       <c r="DA101" s="16"/>
       <c r="DB101" s="16"/>
-      <c r="DC101" s="16"/>
-      <c r="DD101" s="17"/>
-      <c r="DE101" s="17"/>
-      <c r="DF101" s="16"/>
-      <c r="DG101" s="20"/>
-      <c r="DH101" s="20"/>
+      <c r="DC101" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD101" s="24">
+        <v>42522</v>
+      </c>
+      <c r="DE101" s="25">
+        <v>42735</v>
+      </c>
+      <c r="DF101" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG101" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="DH101" s="31">
+        <v>33474</v>
+      </c>
       <c r="DI101" s="16"/>
       <c r="DJ101" s="16"/>
-      <c r="DK101" s="16"/>
+      <c r="DK101" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="DL101" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="DM101" s="15" t="s">
         <v>387</v>
       </c>
       <c r="DN101" s="17" t="s">
         <v>540</v>
+      </c>
+      <c r="DO101" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP101" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ101" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR101" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS101" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU101" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="EH101" s="21"/>
       <c r="EW101" s="17"/>
